--- a/Client/Assets/Data/XLSXS/TestData2.xlsx
+++ b/Client/Assets/Data/XLSXS/TestData2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Client\Assets\Data\XLSXS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F669AED0-8EC9-4CB5-9276-6E0076B83FEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A47A5CE-8BA5-4915-B4DE-0508C7F8AE63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{79A95904-7ECB-477A-BCA4-53F736690B4B}"/>
+    <workbookView xWindow="6870" yWindow="5055" windowWidth="21600" windowHeight="11385" xr2:uid="{79A95904-7ECB-477A-BCA4-53F736690B4B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
   <si>
     <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -109,6 +109,29 @@
   <si>
     <t>speed</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffType</t>
+  </si>
+  <si>
+    <t>버프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Buff</t>
+  </si>
+  <si>
+    <t>Debuff</t>
+  </si>
+  <si>
+    <t>State</t>
   </si>
 </sst>
 </file>
@@ -472,10 +495,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{740259D2-4F51-4A9B-AFFF-743829693509}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:E12"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -487,7 +510,7 @@
     <col min="5" max="5" width="16.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -503,8 +526,11 @@
       <c r="E1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -520,8 +546,11 @@
       <c r="E2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -537,8 +566,11 @@
       <c r="E3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -554,8 +586,11 @@
       <c r="E4">
         <v>1000</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2</v>
       </c>
@@ -571,8 +606,11 @@
       <c r="E5">
         <v>1001</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3</v>
       </c>
@@ -588,8 +626,11 @@
       <c r="E6">
         <v>1002</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>4</v>
       </c>
@@ -605,8 +646,11 @@
       <c r="E7">
         <v>1003</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>5</v>
       </c>
@@ -622,8 +666,11 @@
       <c r="E8">
         <v>1004</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>6</v>
       </c>
@@ -639,8 +686,11 @@
       <c r="E9">
         <v>1005</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>7</v>
       </c>
@@ -656,8 +706,11 @@
       <c r="E10">
         <v>1006</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>8</v>
       </c>
@@ -673,8 +726,11 @@
       <c r="E11">
         <v>1007</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>9</v>
       </c>
@@ -689,6 +745,9 @@
       </c>
       <c r="E12">
         <v>1008</v>
+      </c>
+      <c r="F12" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/Client/Assets/Data/XLSXS/TestData2.xlsx
+++ b/Client/Assets/Data/XLSXS/TestData2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Client\Assets\Data\XLSXS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\PhotonGameJam\Client\Assets\Data\XLSXS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A47A5CE-8BA5-4915-B4DE-0508C7F8AE63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5E6F1B9-2B80-4E96-8BF4-B5DA4881003E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6870" yWindow="5055" windowWidth="21600" windowHeight="11385" xr2:uid="{79A95904-7ECB-477A-BCA4-53F736690B4B}"/>
+    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{79A95904-7ECB-477A-BCA4-53F736690B4B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
   <si>
     <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -123,15 +123,6 @@
   </si>
   <si>
     <t>None</t>
-  </si>
-  <si>
-    <t>Buff</t>
-  </si>
-  <si>
-    <t>Debuff</t>
-  </si>
-  <si>
-    <t>State</t>
   </si>
 </sst>
 </file>
@@ -498,7 +489,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -607,7 +598,7 @@
         <v>1001</v>
       </c>
       <c r="F5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -627,7 +618,7 @@
         <v>1002</v>
       </c>
       <c r="F6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -647,7 +638,7 @@
         <v>1003</v>
       </c>
       <c r="F7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -667,7 +658,7 @@
         <v>1004</v>
       </c>
       <c r="F8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -687,7 +678,7 @@
         <v>1005</v>
       </c>
       <c r="F9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -707,7 +698,7 @@
         <v>1006</v>
       </c>
       <c r="F10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -727,7 +718,7 @@
         <v>1007</v>
       </c>
       <c r="F11" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -747,7 +738,7 @@
         <v>1008</v>
       </c>
       <c r="F12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
